--- a/data/income_statement/3digits/total/031_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/031_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>031-Fishing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>031-Fishing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>190604.76182</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>269199.64936</v>
+        <v>271834.74863</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>346270.20812</v>
@@ -962,37 +868,42 @@
         <v>343088.62719</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>410526.45311</v>
+        <v>410526.4531099999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>356314.8710399999</v>
+        <v>356314.87104</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>372042.23955</v>
+        <v>374050.42156</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>393241.71173</v>
+        <v>436108.30741</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>476587.18216</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>703460.58149</v>
+        <v>704394.40163</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>901318.08574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>909861.10066</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1091826.641</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>146485.66541</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>214292.82186</v>
+        <v>216685.46513</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>279544.32511</v>
@@ -1007,25 +918,30 @@
         <v>291992.74122</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>294460.21061</v>
+        <v>295874.27162</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>332354.35798</v>
+        <v>335631.43214</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>366366.87816</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>545606.72976</v>
+        <v>546540.4299000001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>779950.0771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>724977.8503099999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>878894.722</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>31319.67237</v>
@@ -1049,7 +965,7 @@
         <v>69972.73906000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>55350.03278</v>
+        <v>94743.59631000001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>101099.2192</v>
@@ -1058,19 +974,24 @@
         <v>147070.84525</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>107262.33223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>170758.48913</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>187553.02</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>12799.42404</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>16580.39707</v>
+        <v>16822.85307</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>21496.02484</v>
@@ -1082,34 +1003,39 @@
         <v>20702.31046</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7768.41373</v>
+        <v>7768.413729999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>7609.28988</v>
+        <v>8203.410879999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5537.320970000001</v>
+        <v>5733.27896</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>9121.084799999999</v>
+        <v>9121.084800000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>10783.00648</v>
+        <v>10783.12648</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>14105.67641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14124.76122</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>25378.899</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>553.43795</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1852.91367</v>
+        <v>1862.20948</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>1202.41429</v>
@@ -1118,7 +1044,7 @@
         <v>2069.59989</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>664.3116499999999</v>
+        <v>664.31165</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>476.41025</v>
@@ -1127,7 +1053,7 @@
         <v>408.73424</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3518.80154</v>
+        <v>3521.53354</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1645.91901</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>4396.008269999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>4185.718</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>424.6144200000001</v>
@@ -1166,7 +1097,7 @@
         <v>247.87052</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>787.3569</v>
+        <v>790.0888999999999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1414.66974</v>
@@ -1175,19 +1106,24 @@
         <v>783.47046</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4230.92335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4230.923350000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3851.704</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>9.30301</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1743.15702</v>
+        <v>1752.45283</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>1028.22172</v>
@@ -1199,16 +1135,16 @@
         <v>60.945</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>69.28324000000001</v>
+        <v>69.28323999999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>64.36688000000001</v>
+        <v>64.36687999999999</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>1361.87239</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>41.85493999999999</v>
+        <v>41.85494</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>104.69755</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>94.68128</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>268.216</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>119.52052</v>
@@ -1255,17 +1196,22 @@
       <c r="M12" s="48" t="n">
         <v>70.40364</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>65.798</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>190051.32387</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>267346.73569</v>
+        <v>269972.53915</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>345067.79383</v>
@@ -1280,31 +1226,36 @@
         <v>355838.46079</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>371633.50531</v>
+        <v>373641.68732</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>389722.91019</v>
+        <v>432586.77387</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>474941.26315</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>702554.33175</v>
+        <v>703488.1518900001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>896922.07747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>905465.09239</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1087640.923</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>152153.55102</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>223920.69468</v>
+        <v>226132.27989</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>287558.8989</v>
@@ -1319,31 +1270,36 @@
         <v>307431.12634</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>317667.5306</v>
+        <v>319058.45569</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>331759.6829600001</v>
+        <v>372257.17336</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>398593.91669</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>600311.52998</v>
+        <v>601238.6947699999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>778862.52066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>782443.60568</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>942703.238</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>80704.59134</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>128846.90269</v>
+        <v>128856.72769</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>158586.90224</v>
@@ -1358,31 +1314,36 @@
         <v>157464.53299</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>148826.82698</v>
+        <v>149074.01692</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>166192.52719</v>
+        <v>169770.91768</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>156930.186</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>260036.68618</v>
+        <v>260949.47783</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>258374.60393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>259153.87884</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>487086.637</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>66334.6056</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>86266.03909999999</v>
+        <v>88467.79931</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>116418.59992</v>
@@ -1397,31 +1358,36 @@
         <v>140566.69949</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>155609.33904</v>
+        <v>156753.07419</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>145520.33143</v>
+        <v>182437.41376</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>215103.37159</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>299729.87619</v>
+        <v>299732.60319</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>482094.37688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>482905.02496</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>397218.179</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>5013.42787</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7321.190560000001</v>
+        <v>7321.19056</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>8892.882589999999</v>
@@ -1439,22 +1405,27 @@
         <v>12804.00633</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>19905.8245</v>
+        <v>19907.84208</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>24012.43178</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>39859.23591</v>
+        <v>39870.88205</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>38211.2305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>40202.39253</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>48542.422</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>100.92621</v>
@@ -1489,23 +1460,28 @@
       <c r="M18" s="48" t="n">
         <v>182.30935</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>9856</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>37897.77285</v>
+        <v>37897.77284999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>43426.04101</v>
+        <v>43840.25926</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>57508.89493</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>54951.62065999999</v>
+        <v>54951.62066</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>61930.63775</v>
@@ -1514,64 +1490,74 @@
         <v>48407.33445</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>53965.97470999999</v>
+        <v>54583.23162999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>57963.22723</v>
+        <v>60329.60051</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>76347.34646</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>102242.80177</v>
+        <v>102249.45712</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>118059.55681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>123021.48671</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>144937.685</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>22902.19399</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>30776.20354</v>
+        <v>30940.09648</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>34844.97077</v>
+        <v>34844.97076999999</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>37337.37042</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>40456.2051</v>
+        <v>40463.82002</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>37627.16528</v>
+        <v>37633.40086</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>38469.70242</v>
+        <v>38600.29707</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>46605.25885</v>
+        <v>48105.16261</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>61489.91139</v>
+        <v>61489.91138999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>77399.47814000002</v>
+        <v>77483.15680000001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>86082.24728999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>88896.31894</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>110194.843</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,20 +1592,25 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>6169.529049999999</v>
+        <v>6169.529050000001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>7150.12241</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>9311.110049999999</v>
+        <v>9311.110050000001</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>10502.59075</v>
@@ -1628,34 +1619,39 @@
         <v>10518.69278</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>9451.8001</v>
+        <v>9451.800100000002</v>
       </c>
       <c r="I22" s="48" t="n">
         <v>10296.62578</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>11929.96716</v>
+        <v>12983.39596</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>15840.35154</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>20207.96088</v>
+        <v>20282.14212</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20559.88051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20725.50714</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>20344.554</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>16732.66494</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>23625.58113</v>
+        <v>23789.47407</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>25533.86072</v>
@@ -1664,37 +1660,42 @@
         <v>26810.55985</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>29719.85330999999</v>
+        <v>29727.46823</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>27803.82126</v>
+        <v>27810.05684</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>28029.00399</v>
+        <v>28159.59864</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>34602.84497</v>
+        <v>35049.31993</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>45649.32558</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>57189.91818</v>
+        <v>57199.41559999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>65522.36678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>68170.8118</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>89850.289</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>14995.57886</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>12649.83747</v>
+        <v>12900.16278</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>22663.92416</v>
@@ -1703,37 +1704,42 @@
         <v>17614.25024</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>21474.43265</v>
+        <v>21466.81773</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>10780.16917</v>
+        <v>10773.93359</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>15496.27229</v>
+        <v>15982.93456</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>11357.96838</v>
+        <v>12224.4379</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>14857.43507</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>24843.32363</v>
+        <v>24766.30032</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>31977.30952</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>34125.16776999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>34742.842</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1985.81911</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4706.18326</v>
+        <v>4706.183260000001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>8338.72869</v>
@@ -1748,10 +1754,10 @@
         <v>4661.279070000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6578.461989999999</v>
+        <v>6578.46199</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>7979.79981</v>
+        <v>8076.96622</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>7829.99414</v>
@@ -1760,13 +1766,18 @@
         <v>30936.41393</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>21223.93802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>20880.37578</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>26269.543</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8.09</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>10.30429</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>40.909</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>468.8903100000001</v>
+        <v>468.89031</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>559.18727</v>
@@ -1859,7 +1880,7 @@
         <v>3938.85738</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4254.244060000001</v>
+        <v>4254.24406</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>814.05066</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>487.59707</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>466.86</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>60.48119999999999</v>
@@ -1913,16 +1939,21 @@
         <v>63.155</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>93.37148000000001</v>
+        <v>93.37147999999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>30.03106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>32.9349</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>26.116</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0.001</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>980.99373</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1007.96</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1.39354</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>101.47478</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>4.144</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>800.3833500000001</v>
@@ -2018,16 +2059,16 @@
         <v>8356.68442</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>966.8496799999999</v>
+        <v>966.84968</v>
       </c>
       <c r="I32" s="48" t="n">
         <v>2806.99507</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3514.37753</v>
+        <v>3611.54394</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6070.3434</v>
+        <v>6070.343400000001</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>28730.34392</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>17083.96641</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>21149.182</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>68.64567</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.493</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>644.36542</v>
+        <v>644.3654200000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>1044.71876</v>
@@ -2129,40 +2185,45 @@
         <v>921.06964</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4284.0046</v>
+        <v>4284.004599999999</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>1848.02912</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2450.91585</v>
+        <v>2450.915849999999</v>
       </c>
       <c r="I35" s="48" t="n">
         <v>2338.3472</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2815.720940000001</v>
+        <v>2815.72094</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>-260.6928100000001</v>
+        <v>-260.6928100000003</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>257.8700500000002</v>
+        <v>257.8700499999998</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2463.1393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2116.67322</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>3558.579</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>5912.667640000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3079.02487</v>
+        <v>3080.02487</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>14712.26281</v>
@@ -2180,7 +2241,7 @@
         <v>5644.281970000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4791.45496</v>
+        <v>4901.06446</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>9870.535250000001</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>21603.04922</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>30763.3</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>41.43917</v>
@@ -2219,7 +2285,7 @@
         <v>254.29039</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>255.49751</v>
+        <v>256.04246</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>243.50627</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>163.89181</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>365.322</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3420.80067</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>127.04704</v>
+        <v>128.04704</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>573.78995</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1987.51386</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1371.2519</v>
@@ -2324,7 +2405,7 @@
         <v>13278.29501</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6182.70985</v>
+        <v>6182.709849999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>31448.27717</v>
@@ -2336,7 +2417,7 @@
         <v>1865.71829</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3954.31717</v>
+        <v>4063.38172</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>8774.9535</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>18759.21465</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>30086.185</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>68.646</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1079.1759</v>
@@ -2462,13 +2558,18 @@
         <v>257.49258</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>692.4288999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>692.4289</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>241.117</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>6727.57897</v>
@@ -2483,7 +2584,7 @@
         <v>12079.18092</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>15979.14163</v>
+        <v>15980.60269</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>9238.647629999999</v>
@@ -2492,25 +2593,30 @@
         <v>5953.493630000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6910.35062</v>
+        <v>6957.62152</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>7176.164849999999</v>
+        <v>7176.16485</v>
       </c>
       <c r="L44" s="47" t="n">
         <v>12349.00407</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>12272.48883</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>12275.18283</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>10317.255</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>6459.499110000001</v>
+        <v>6459.49911</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>4897.658240000001</v>
@@ -2522,7 +2628,7 @@
         <v>11988.38123</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>15699.78794</v>
+        <v>15701.249</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>8836.70811</v>
@@ -2531,7 +2637,7 @@
         <v>5270.74385</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6249.986150000001</v>
+        <v>6297.25705</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>6499.872699999999</v>
@@ -2540,13 +2646,18 @@
         <v>11724.03415</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>9963.73689</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>9966.430890000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>9497.608</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>268.07986</v>
@@ -2581,17 +2692,22 @@
       <c r="M46" s="48" t="n">
         <v>2308.75194</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>819.647</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>4341.151360000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>9228.815359999999</v>
+        <v>9478.140670000001</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>9093.79263</v>
@@ -2600,31 +2716,36 @@
         <v>15313.10703</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-14651.43447</v>
+        <v>-14660.51045</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1852.65483</v>
+        <v>1846.419249999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>10476.95868</v>
+        <v>10963.62095</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>7635.96261</v>
+        <v>8442.718140000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>5640.72911</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2731.22001</v>
+        <v>2654.1967</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>19325.70949</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>21127.3115</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>19931.83</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>4757.86063</v>
@@ -2639,31 +2760,36 @@
         <v>3098.75715</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2605.5286</v>
+        <v>2605.53229</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5444.69988</v>
+        <v>5444.710099999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3524.2824</v>
+        <v>3561.45133</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4250.569270000001</v>
+        <v>4301.109390000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5858.278310000001</v>
+        <v>5858.27831</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8510.673010000002</v>
+        <v>8510.67301</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>9267.767189999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>9581.44967</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>16635.305</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1</v>
@@ -2681,7 +2807,7 @@
         <v>77.96378</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>65</v>
+        <v>65.01022</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>6.34082</v>
@@ -2693,16 +2819,21 @@
         <v>0</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>54.62114999999999</v>
+        <v>54.62115</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>68.28016000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>56.218</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>4756.86063</v>
@@ -2717,37 +2848,42 @@
         <v>2964.63329</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2527.56482</v>
+        <v>2527.56851</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>5379.69988</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3517.94158</v>
+        <v>3555.11051</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4133.76086</v>
+        <v>4184.30098</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5858.278310000001</v>
+        <v>5858.27831</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>8456.05186</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9199.48703</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>9513.16951</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>16579.087</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2870.48548</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1619.35238</v>
+        <v>1624.93977</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>14341.65547</v>
@@ -2762,25 +2898,30 @@
         <v>5217.44128</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5566.41184</v>
+        <v>5575.57543</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>9891.14011</v>
+        <v>9900.66554</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>2831.68865</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>11625.06508</v>
+        <v>11632.91108</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2612.85091</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2613.31314</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4797.004</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>71.25621000000001</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>285.2521</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>88.63200000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>227.46277</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>319.9941200000001</v>
+        <v>319.99412</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>1513.71137</v>
@@ -2854,17 +3000,22 @@
       <c r="M53" s="48" t="n">
         <v>139.70477</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>2028.53</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2571.7665</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>859.9812999999999</v>
+        <v>865.5686899999999</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>12779.65578</v>
@@ -2879,70 +3030,80 @@
         <v>4946.78937</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4194.64496</v>
+        <v>4203.80855</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>9788.017</v>
+        <v>9797.54243</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>2759.12069</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>11515.88649</v>
+        <v>11523.73249</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2187.89404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2188.35627</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2679.842</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>6228.52651</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>9620.248180000001</v>
+        <v>9863.9861</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-1322.812480000001</v>
+        <v>-1322.81248</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>15880.94571</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-14357.6485</v>
+        <v>-14366.72079</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2079.91343</v>
+        <v>2073.68807</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>8434.829240000001</v>
+        <v>8949.49685</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1995.391769999999</v>
+        <v>2843.16199</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>8667.31877</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-383.1720600000005</v>
+        <v>-468.0413700000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>25980.62577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>28095.44803</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>31770.131</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>873.50499</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1701.06234</v>
+        <v>1740.96812</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>2601.74752</v>
@@ -2957,7 +3118,7 @@
         <v>898.66148</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1562.40418</v>
+        <v>1666.48888</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>1305.10349</v>
@@ -2969,19 +3130,24 @@
         <v>2498.00229</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3479.43343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3564.45986</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>6358.29</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>5355.021519999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>7919.18584</v>
+        <v>8123.017980000001</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-3924.56</v>
@@ -2990,28 +3156,31 @@
         <v>13182.3749</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-16219.60538</v>
+        <v>-16228.67767</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1181.25195</v>
+        <v>1175.02659</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>6872.42506</v>
+        <v>7283.007970000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>690.2882799999998</v>
+        <v>1538.0585</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>7153.52022</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-2881.17435</v>
+        <v>-2966.04366</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>22501.19234000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>24530.98817</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>25411.841</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,17 +3194,20 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>247</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E59" s="35" t="n">
         <v>291</v>
@@ -3044,28 +3216,31 @@
         <v>293</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>280</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>292</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>